--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.2031385446063219, 0.7148807866742369, 1.9427590071935819, 3.9887527456617)</t>
-  </si>
-  <si>
-    <t>NIG(1.096690664626618, 0.828613256917734, 5.116622110070139, 5.023810540109377)</t>
-  </si>
-  <si>
-    <t>NIG(1.5042891869790407, 0.9809136843802724, 1.319936908642762, 4.0689479812413705)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2549689160841404, 1.1691540271700795, 2.1572088512152483, 4.94458720598861)</t>
+    <t>NIG(1.063631372210698, 0.6069138574468314, 2.188368220279388, 3.8005269855140895)</t>
+  </si>
+  <si>
+    <t>NIG(0.9192664996201568, 0.6695023852587427, 5.654705693043235, 5.007920253508492)</t>
+  </si>
+  <si>
+    <t>NIG(1.8222570068211121, 1.222534893275363, 0.9850379134693319, 4.297237844550496)</t>
+  </si>
+  <si>
+    <t>JSU(-1.240442123002143, 1.1575792410004593, 2.3695611535422665, 4.825346040271131)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.063631372210698, 0.6069138574468314, 2.188368220279388, 3.8005269855140895)</t>
-  </si>
-  <si>
-    <t>NIG(0.9192664996201568, 0.6695023852587427, 5.654705693043235, 5.007920253508492)</t>
-  </si>
-  <si>
-    <t>NIG(1.8222570068211121, 1.222534893275363, 0.9850379134693319, 4.297237844550496)</t>
-  </si>
-  <si>
-    <t>JSU(-1.240442123002143, 1.1575792410004593, 2.3695611535422665, 4.825346040271131)</t>
+    <t>NIG(1.1219627926616031, 0.65096565921388, 2.0184203984331255, 3.747096004287215)</t>
+  </si>
+  <si>
+    <t>NIG(0.9443484853018659, 0.6941414460604605, 5.485183473760234, 5.174350726331159)</t>
+  </si>
+  <si>
+    <t>NIG(1.6449133221328798, 1.0740720095617347, 1.198802096504752, 4.1786729319112945)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2242333315861627, 1.1428836722772902, 2.53599059603127, 4.596828168728434)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.1219627926616031, 0.65096565921388, 2.0184203984331255, 3.747096004287215)</t>
-  </si>
-  <si>
-    <t>NIG(0.9443484853018659, 0.6941414460604605, 5.485183473760234, 5.174350726331159)</t>
-  </si>
-  <si>
-    <t>NIG(1.6449133221328798, 1.0740720095617347, 1.198802096504752, 4.1786729319112945)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2242333315861627, 1.1428836722772902, 2.53599059603127, 4.596828168728434)</t>
+    <t>NIG(1.2323878327099391, 0.7575184167209236, 1.6913079003380518, 3.712997712998384)</t>
+  </si>
+  <si>
+    <t>NIG(0.9581427339605669, 0.7218561874972481, 5.3171946209864185, 5.200597297582168)</t>
+  </si>
+  <si>
+    <t>NIG(1.5140135650637936, 1.021281770040873, 1.336711012609238, 3.9006121663399305)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2215926604903664, 1.1404495540134576, 2.4891269822297115, 4.42057475819599)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.2323878327099391, 0.7575184167209236, 1.6913079003380518, 3.712997712998384)</t>
-  </si>
-  <si>
-    <t>NIG(0.9581427339605669, 0.7218561874972481, 5.3171946209864185, 5.200597297582168)</t>
-  </si>
-  <si>
-    <t>NIG(1.5140135650637936, 1.021281770040873, 1.336711012609238, 3.9006121663399305)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2215926604903664, 1.1404495540134576, 2.4891269822297115, 4.42057475819599)</t>
+    <t>NIG(1.3695137821225378, 0.8956053172755021, 1.4270186454281373, 3.8134009480665245)</t>
+  </si>
+  <si>
+    <t>NIG(1.0017120171052478, 0.7778563449069307, 4.936973102483021, 5.0751145568572955)</t>
+  </si>
+  <si>
+    <t>NIG(1.4811926785128906, 1.004372938435362, 1.3346683945726665, 3.7829850511476844)</t>
+  </si>
+  <si>
+    <t>JSU(-1.18295734700862, 1.0461687657810983, 2.7629773673432574, 3.858157685836821)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.3695137821225378, 0.8956053172755021, 1.4270186454281373, 3.8134009480665245)</t>
-  </si>
-  <si>
-    <t>NIG(1.0017120171052478, 0.7778563449069307, 4.936973102483021, 5.0751145568572955)</t>
-  </si>
-  <si>
-    <t>NIG(1.4811926785128906, 1.004372938435362, 1.3346683945726665, 3.7829850511476844)</t>
-  </si>
-  <si>
-    <t>JSU(-1.18295734700862, 1.0461687657810983, 2.7629773673432574, 3.858157685836821)</t>
+    <t>NIG(1.2883883703085275, 0.8287904798950401, 1.5535617753405, 3.8318747496203316)</t>
+  </si>
+  <si>
+    <t>NCT(2.6003785554250043, 1.9247030455518197, -0.018480124181921208, 4.038841498219803)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9815945657149447, 1.2492682017187875, 0.8809996637540796, 3.336874043017569)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1752009213211605, 1.0578695136877216, 2.828867612304108, 3.874741505406135)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Chiefs/Distributions.xlsx
+++ b/Base/Teams/Chiefs/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.2883883703085275, 0.8287904798950401, 1.5535617753405, 3.8318747496203316)</t>
-  </si>
-  <si>
-    <t>NCT(2.6003785554250043, 1.9247030455518197, -0.018480124181921208, 4.038841498219803)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9815945657149447, 1.2492682017187875, 0.8809996637540796, 3.336874043017569)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1752009213211605, 1.0578695136877216, 2.828867612304108, 3.874741505406135)</t>
+    <t>NCT(3.3152176530624358, 1.5772195816834524, -0.9064625844065658, 2.769665179102258)</t>
+  </si>
+  <si>
+    <t>NCT(2.5257719539080146, 1.956392391595798, -0.013672115746600228, 3.9179388709047)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0371755464286299, 1.2822633889176782, 0.6948798610497393, 3.4111443054072828)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1384733287182143, 1.045854380514267, 2.8772947593622646, 3.938147739889253)</t>
   </si>
 </sst>
 </file>
